--- a/Datos/Google_Analytics-Catálogo_EBA.xlsx
+++ b/Datos/Google_Analytics-Catálogo_EBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA - Nuria\Mi trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA Nuria\Mi trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45CDE4E-6E10-463D-A86E-FC31908CA868}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF60325-FEAF-4D87-9805-7D734F1648BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" firstSheet="4" activeTab="6" xr2:uid="{D944B07B-7236-468E-A8D5-38724AC61516}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{D944B07B-7236-468E-A8D5-38724AC61516}"/>
   </bookViews>
   <sheets>
     <sheet name="Visión general" sheetId="1" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,6 +1444,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1608,13 +1615,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1663,6 +1668,13 @@
     <xf numFmtId="10" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1992,200 +2004,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C62A7C3-0AA2-480B-A10F-D47AA5906846}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
         <v>86</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>81</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>100</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>668</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
+        <f>E2/D2</f>
         <v>6.68</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>0.25</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>177.01</v>
       </c>
-      <c r="I2" s="13">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="11">
+        <f>D2/B2</f>
+        <v>1.1627906976744187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>248</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>235</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>335</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>2031</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F6" si="0">E3/D3</f>
         <v>6.062686567164179</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>0.32537313432835818</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>209.45970149253731</v>
       </c>
-      <c r="I3" s="13">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I6" si="1">D3/B3</f>
+        <v>1.3508064516129032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>102</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>90</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>148</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>632</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
         <v>4.2702702702702702</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.45945945945945948</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>136.81756756756758</v>
       </c>
-      <c r="I4" s="13">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4509803921568627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>154</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>146</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>202</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>926</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
         <v>4.5841584158415838</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>0.35148514851485146</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>123.70792079207921</v>
       </c>
-      <c r="I5" s="13">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3116883116883118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>144</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>135</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>155</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>696</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="52">
+        <f t="shared" si="0"/>
         <v>4.4903225806451612</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>0.4258064516129032</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>116.60645161290323</v>
       </c>
-      <c r="I6" s="13">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0763888888888888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,2617 +2222,2618 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67F820E-9100-45BD-8A15-17F994FEDF97}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
         <v>43374</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
         <v>43375</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <v>43376</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
         <v>43377</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
         <v>43378</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
         <v>43379</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
         <v>43380</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
         <v>43381</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <v>43382</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>43383</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <v>43384</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
         <v>43385</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
         <v>43386</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
         <v>43387</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
         <v>43388</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
         <v>43389</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
         <v>43390</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
         <v>43391</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="53">
         <v>43392</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
         <v>43393</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
         <v>43394</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
         <v>43395</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
         <v>43396</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>13</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
         <v>43397</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>12</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>23</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>23</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
         <v>43398</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>10</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>31</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>31</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
         <v>43399</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>33</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>33</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
         <v>43400</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>10</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>43</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>43</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="53">
         <v>43401</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>67</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>67</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
         <v>43402</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>9</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>72</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>76</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
         <v>43403</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>7</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>70</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>81</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="53">
         <v>43404</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>6</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>66</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>86</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
         <v>43405</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>4</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>61</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>90</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
         <v>43406</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>6</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>65</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>96</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
         <v>43407</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>60</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
         <v>43408</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>6</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>41</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>105</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
         <v>43409</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>8</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>40</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>109</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
         <v>43410</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>7</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="5">
         <v>39</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>106</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
         <v>43411</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>6</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>39</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>103</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
         <v>43412</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>5</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="5">
         <v>40</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>99</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
         <v>43413</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>7</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>42</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>104</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
         <v>43414</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>3</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="5">
         <v>40</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="5">
         <v>98</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
         <v>43415</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>36</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>75</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
         <v>43416</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>42</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>68</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>105</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
         <v>43417</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>9</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>70</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="5">
         <v>105</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
         <v>43418</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>18</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>79</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>116</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
         <v>43419</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>15</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>88</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="5">
         <v>126</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
         <v>43420</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>12</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>91</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="5">
         <v>131</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
         <v>43421</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>19</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>104</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="5">
         <v>141</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
         <v>43422</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>22</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>122</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="5">
         <v>155</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
         <v>43423</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>13</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>97</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="5">
         <v>159</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
         <v>43424</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>8</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="5">
         <v>97</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="5">
         <v>160</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="53">
         <v>43425</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>90</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="5">
         <v>163</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="53">
         <v>43426</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>10</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>85</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="5">
         <v>165</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="53">
         <v>43427</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>3</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>75</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="5">
         <v>159</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
         <v>43428</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>3</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <v>59</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="5">
         <v>158</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="53">
         <v>43429</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>7</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>45</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="5">
         <v>163</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
         <v>43430</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>12</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="5">
         <v>42</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="5">
         <v>135</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
         <v>43431</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>10</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>45</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="5">
         <v>137</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
         <v>43432</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>6</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <v>41</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="5">
         <v>126</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
         <v>43433</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>8</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>41</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="5">
         <v>121</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
         <v>43434</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>10</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="5">
         <v>47</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="5">
         <v>117</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
         <v>43435</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>6</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <v>48</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="5">
         <v>104</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
         <v>43436</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>4</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="5">
         <v>44</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="5">
         <v>86</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="53">
         <v>43437</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>5</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="5">
         <v>40</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="5">
         <v>77</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
         <v>43438</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>12</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="5">
         <v>42</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="5">
         <v>80</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="53">
         <v>43439</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>5</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="5">
         <v>40</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="5">
         <v>75</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
         <v>43440</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>4</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="5">
         <v>36</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="5">
         <v>70</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="53">
         <v>43441</v>
       </c>
-      <c r="B69" s="7">
-        <v>0</v>
-      </c>
-      <c r="C69" s="7">
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
         <v>28</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="5">
         <v>69</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="53">
         <v>43442</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>1</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="5">
         <v>24</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="5">
         <v>68</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="53">
         <v>43443</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>3</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="5">
         <v>24</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="5">
         <v>65</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="53">
         <v>43444</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="5">
         <v>3</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="5">
         <v>22</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="5">
         <v>59</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
         <v>43445</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>5</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>17</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="5">
         <v>55</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="53">
         <v>43446</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>11</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="5">
         <v>23</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="5">
         <v>60</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="53">
         <v>43447</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="5">
         <v>6</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="5">
         <v>24</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="5">
         <v>58</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="53">
         <v>43448</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>11</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="5">
         <v>33</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="5">
         <v>59</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="5">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="53">
         <v>43449</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>6</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>36</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="5">
         <v>59</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="53">
         <v>43450</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>1</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="5">
         <v>36</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="5">
         <v>58</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="53">
         <v>43451</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>3</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="5">
         <v>36</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="5">
         <v>56</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
         <v>43452</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>5</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="5">
         <v>36</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="5">
         <v>51</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="53">
         <v>43453</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>1</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="5">
         <v>26</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="5">
         <v>47</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="53">
         <v>43454</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>8</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="5">
         <v>27</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="5">
         <v>49</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="53">
         <v>43455</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>2</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="5">
         <v>20</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="5">
         <v>50</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="5">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="53">
         <v>43456</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>3</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="5">
         <v>18</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="5">
         <v>52</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="53">
         <v>43457</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>5</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="5">
         <v>22</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="5">
         <v>56</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="53">
         <v>43458</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>2</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="5">
         <v>22</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="5">
         <v>56</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
         <v>43459</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>5</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="5">
         <v>24</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="5">
         <v>56</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="53">
         <v>43460</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>3</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="5">
         <v>27</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="5">
         <v>49</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="53">
         <v>43461</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>3</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="5">
         <v>23</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="5">
         <v>48</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="53">
         <v>43462</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>4</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="5">
         <v>24</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="5">
         <v>43</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="53">
         <v>43463</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>2</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="5">
         <v>23</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="5">
         <v>41</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="5">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="53">
         <v>43464</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>1</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="5">
         <v>19</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="5">
         <v>41</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="53">
         <v>43465</v>
       </c>
-      <c r="B93" s="7">
-        <v>0</v>
-      </c>
-      <c r="C93" s="7">
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" s="5">
         <v>17</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="5">
         <v>39</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
         <v>43466</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>6</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="5">
         <v>19</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="5">
         <v>41</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="53">
         <v>43467</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>4</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="5">
         <v>19</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="5">
         <v>44</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="53">
         <v>43468</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>5</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="5">
         <v>20</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="5">
         <v>41</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="53">
         <v>43469</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>3</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="5">
         <v>20</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="5">
         <v>43</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="53">
         <v>43470</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>3</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="5">
         <v>20</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="5">
         <v>42</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="53">
         <v>43471</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>11</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="5">
         <v>27</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="5">
         <v>45</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="53">
         <v>43472</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="5">
         <v>4</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="5">
         <v>31</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="5">
         <v>47</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
         <v>43473</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="5">
         <v>2</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="5">
         <v>27</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="5">
         <v>44</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="53">
         <v>43474</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <v>3</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="5">
         <v>26</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="5">
         <v>43</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="53">
         <v>43475</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="5">
         <v>5</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="5">
         <v>26</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="5">
         <v>44</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="53">
         <v>43476</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="5">
         <v>2</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="5">
         <v>24</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="5">
         <v>42</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="53">
         <v>43477</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>4</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="5">
         <v>27</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="5">
         <v>44</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="53">
         <v>43478</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="5">
         <v>9</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="5">
         <v>25</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="5">
         <v>50</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="53">
         <v>43479</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="5">
         <v>6</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="5">
         <v>25</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="5">
         <v>54</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
         <v>43480</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="5">
         <v>3</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="5">
         <v>27</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="5">
         <v>52</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="53">
         <v>43481</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>4</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="5">
         <v>28</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="5">
         <v>52</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="53">
         <v>43482</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="5">
         <v>7</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="5">
         <v>30</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="5">
         <v>54</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="53">
         <v>43483</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="5">
         <v>3</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="5">
         <v>31</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="5">
         <v>53</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="53">
         <v>43484</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>5</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="5">
         <v>30</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="5">
         <v>55</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="53">
         <v>43485</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>5</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="5">
         <v>28</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="5">
         <v>50</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="53">
         <v>43486</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>8</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="5">
         <v>30</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="5">
         <v>52</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
         <v>43487</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>16</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="5">
         <v>40</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="5">
         <v>64</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="53">
         <v>43488</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>8</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="5">
         <v>43</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="5">
         <v>68</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="53">
         <v>43489</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>11</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="5">
         <v>47</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="5">
         <v>74</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="53">
         <v>43490</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>7</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="5">
         <v>52</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="5">
         <v>80</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="53">
         <v>43491</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>2</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="5">
         <v>49</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="5">
         <v>77</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="53">
         <v>43492</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="5">
         <v>12</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="5">
         <v>57</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="5">
         <v>82</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="53">
         <v>43493</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="5">
         <v>10</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="5">
         <v>62</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="5">
         <v>88</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
         <v>43494</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="5">
         <v>10</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="5">
         <v>57</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="5">
         <v>94</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="53">
         <v>43495</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="5">
         <v>7</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="5">
         <v>55</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="5">
         <v>95</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="53">
         <v>43496</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="5">
         <v>3</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="5">
         <v>47</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="5">
         <v>92</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
         <v>43497</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="5">
         <v>18</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="5">
         <v>58</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="5">
         <v>108</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="53">
         <v>43498</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="5">
         <v>6</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="5">
         <v>63</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="5">
         <v>110</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="53">
         <v>43499</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="5">
         <v>1</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="5">
         <v>52</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="5">
         <v>108</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="5">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="53">
         <v>43500</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>1</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="5">
         <v>43</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="5">
         <v>104</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="53">
         <v>43501</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="5">
         <v>10</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="5">
         <v>46</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="5">
         <v>99</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="53">
         <v>43502</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>4</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="5">
         <v>42</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="5">
         <v>96</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="5">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="53">
         <v>43503</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>4</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="5">
         <v>42</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="5">
         <v>88</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="53">
         <v>43504</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>3</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="5">
         <v>26</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="5">
         <v>83</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="53">
         <v>43505</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="5">
         <v>8</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="5">
         <v>29</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="5">
         <v>90</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="53">
         <v>43506</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="5">
         <v>3</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="5">
         <v>31</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="5">
         <v>81</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="5">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="53">
         <v>43507</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="5">
         <v>4</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="5">
         <v>34</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="5">
         <v>76</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="53">
         <v>43508</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="5">
         <v>6</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="5">
         <v>29</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="5">
         <v>74</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="5">
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="53">
         <v>43509</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="5">
         <v>9</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="5">
         <v>35</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="5">
         <v>76</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="5">
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="53">
         <v>43510</v>
       </c>
-      <c r="B138" s="7">
-        <v>0</v>
-      </c>
-      <c r="C138" s="7">
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+      <c r="C138" s="5">
         <v>32</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="5">
         <v>73</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="5">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="53">
         <v>43511</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="5">
         <v>2</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="5">
         <v>32</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="5">
         <v>57</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="5">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="53">
         <v>43512</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="5">
         <v>2</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="5">
         <v>26</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="5">
         <v>54</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="5">
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="53">
         <v>43513</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="5">
         <v>1</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="5">
         <v>24</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="5">
         <v>54</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="53">
         <v>43514</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="5">
         <v>1</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="5">
         <v>21</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="5">
         <v>54</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="5">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="53">
         <v>43515</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>5</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="5">
         <v>20</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="5">
         <v>49</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="5">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="53">
         <v>43516</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="5">
         <v>9</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="5">
         <v>20</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="5">
         <v>55</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="5">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="53">
         <v>43517</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="5">
         <v>6</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="5">
         <v>26</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="5">
         <v>58</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="53">
         <v>43518</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="5">
         <v>12</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="5">
         <v>35</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="5">
         <v>67</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="5">
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="53">
         <v>43519</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="5">
         <v>3</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="5">
         <v>36</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="5">
         <v>62</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="53">
         <v>43520</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="5">
         <v>1</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="5">
         <v>36</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="5">
         <v>60</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="5">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="53">
         <v>43521</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="5">
         <v>9</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="5">
         <v>44</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="5">
         <v>65</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="5">
         <v>139</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="53">
         <v>43522</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="5">
         <v>9</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="5">
         <v>48</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="5">
         <v>68</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="5">
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="53">
         <v>43523</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="5">
         <v>6</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="5">
         <v>45</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="5">
         <v>65</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="5">
         <v>141</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="53">
         <v>43524</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="5">
         <v>6</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="5">
         <v>46</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="5">
         <v>71</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="5">
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="5">
         <f>SUM(B2:B152)</f>
         <v>855</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="5">
         <f>SUM(C2:C152)</f>
         <v>5262</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="5">
         <f>SUM(D2:D152)</f>
         <v>9931</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="5">
         <f>SUM(E2:E152)</f>
         <v>18601</v>
       </c>
@@ -4823,173 +4848,173 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>687</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>687</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>687</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>0.35516739446870449</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>5.1062590975254727</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>114.17030567685589</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <v>0.45705967976710332</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="18">
         <v>314</v>
       </c>
-      <c r="J2" s="22">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23">
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
         <v>0.72729999999999995</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="22">
         <v>184</v>
       </c>
-      <c r="M2" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>74</v>
       </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
         <v>253</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>0.37549407114624506</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>5.7114624505928857</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>287.53754940711462</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>0.72727272727272729</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>184</v>
       </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
         <v>0.45710000000000001</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>314</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="22">
         <f ca="1">+L+B2:M3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15">
         <f>SUM(B2:B3)</f>
         <v>761</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <f>SUM(C2:C3)</f>
         <v>687</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f>SUM(D2:D3)</f>
         <v>940</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>24</v>
       </c>
@@ -5004,303 +5029,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A6AAD6-3549-4255-93DC-A98EF464EE9C}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>687</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>3508</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <v>816</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <v>4285</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>70</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>293</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <v>31</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>19</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>80</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <v>17</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>14</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>41</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>13</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>6</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>29</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>5</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>49</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>6</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>17</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>4</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>47</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>2</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>25</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>156</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>10</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>33</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="26">
         <v>325</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>9</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>41</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>308</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>11</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>31</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="26">
         <v>100</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>10</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="29">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
         <f>SUM(B2:B13)</f>
         <v>940</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <f>SUM(C2:C13)</f>
         <v>4953</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>6</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="29">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="27">
         <f>SUM(F2:F14)</f>
         <v>940</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <f>SUM(G2:G14)</f>
         <v>4953</v>
       </c>
@@ -5319,333 +5346,333 @@
       <selection activeCell="F1" activeCellId="1" sqref="B1:C1 F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <v>380</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>429</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="31">
         <v>339</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="31">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>94</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>291</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="31">
         <v>99</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>106</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>454</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>3</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="31">
         <v>93</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="31">
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>199</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>1468</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>4</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="31">
         <v>62</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="31">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>101</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>1153</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="31">
         <v>67</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>45</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>629</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>6</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>36</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>15</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <v>529</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <v>47</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
         <f>SUM(B2:B8)</f>
         <v>940</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <f>SUM(C2:C8)</f>
         <v>4953</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="31">
         <v>36</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="31">
         <v>31</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="31">
         <v>21</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="33">
         <v>11</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="31">
         <v>18</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="33">
         <v>12</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>7</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="31">
         <v>9</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="31">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="33">
         <v>14</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="31">
         <v>10</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="31">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="33">
         <v>15</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="31">
         <v>6</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="31">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="35">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="31">
         <v>7</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="31">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="35">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="33">
         <v>17</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="31">
         <v>6</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="31">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="35">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="33">
         <v>18</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="31">
         <v>6</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="31">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="35">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="33">
         <v>19</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="31">
         <v>6</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="31">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="35" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="31">
         <v>34</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="31">
         <v>1167</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="33">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="31">
         <f>SUM(F2:F21)</f>
         <v>940</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="31">
         <f>SUM(G2:G21)</f>
         <v>4953</v>
       </c>
@@ -5661,237 +5688,237 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <v>26</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>30</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>5.93</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="37">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="38">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="36">
         <v>106</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="36">
         <v>135</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <v>5.6</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <v>1.5972222222222221E-3</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>0.30370000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="36">
         <v>61</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>67</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>6.54</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <v>1.7592592592592592E-3</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>0.31340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="36">
         <v>23</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>25</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>6.08</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <v>2.3495370370370371E-3</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>0.44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="36">
         <v>13</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>13</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>8.4600000000000009</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="37">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>0.46150000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="36">
         <f>SUM(B2:B6)</f>
         <v>229</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <f>SUM(C2:C6)</f>
         <v>270</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <f>AVERAGE(D2:D6)</f>
         <v>6.5220000000000002</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="37">
         <f>AVERAGE(E2:E6)</f>
         <v>2.3194444444444443E-3</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <f>AVERAGE(F2:F6)</f>
         <v>0.34372000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <v>166</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>193</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>1213</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>0.31868055555555558</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <v>60</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>80</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>442</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>0.18732638888888889</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="38">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <f>SUM(B10:B11)</f>
         <v>226</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <f>SUM(C10:C11)</f>
         <v>273</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <f>SUM(D10:D11)</f>
         <v>1655</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <f>SUM(E10:E11)</f>
         <v>0.5060069444444445</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <f>SUM(F10:F11)</f>
         <v>85</v>
       </c>
@@ -5905,302 +5932,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C144F7E-12DB-412C-AB75-25E34700BA94}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="48">
         <v>572</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="48">
         <v>560</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="48">
         <v>811</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="49">
         <v>0.2898</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="48">
         <v>5.76</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="48">
         <v>183.15</v>
       </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="48">
         <v>20</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="48">
         <v>20</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="48">
         <v>20</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <v>0.75</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="48">
         <v>1.7</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="48">
         <v>20.5</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="48">
         <v>18</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <v>18</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="48">
         <v>18</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <v>0.94440000000000002</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="48">
         <v>1.28</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="48">
         <v>4.5</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="48">
         <v>18</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="48">
         <v>18</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>18</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="48">
         <v>1</v>
       </c>
-      <c r="G5" s="50">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="G5" s="48">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="48">
         <v>17</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="48">
         <v>17</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <v>17</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>0.94120000000000004</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <v>1.65</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="48">
         <v>5.24</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="48">
         <v>12</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="48">
         <v>12</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="48">
         <v>13</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>0.69230000000000003</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <v>3.31</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="48">
         <v>50</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="48">
         <v>7</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="48">
         <v>7</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="48">
         <v>7</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>0.71430000000000005</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="48">
         <v>2.29</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="48">
         <v>23.57</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="48">
         <v>5</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="48">
         <v>5</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="48">
         <v>5</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>1</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="48">
         <v>1</v>
       </c>
-      <c r="G9" s="50">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="48">
         <v>4</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <v>4</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <v>4</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <v>0.5</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <v>5</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="48">
         <v>52</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="48">
         <v>4</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="48">
         <v>4</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="48">
         <v>4</v>
       </c>
-      <c r="E11" s="51">
-        <v>0</v>
-      </c>
-      <c r="F11" s="50">
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
         <v>3.75</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="48">
         <v>25</v>
       </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="48">
         <f>SUM(B2:B11)</f>
         <v>677</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="48">
         <f>SUM(C2:C11)</f>
         <v>665</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="48">
         <f>SUM(D2:D11)</f>
         <v>917</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6211,254 +6238,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B105DA-D34A-4DC2-9B04-2F07D8189D82}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>593</v>
       </c>
-      <c r="C2" s="47">
-        <v>0</v>
-      </c>
-      <c r="D2" s="47">
-        <v>0</v>
-      </c>
-      <c r="E2" s="47">
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45">
+        <v>0</v>
+      </c>
+      <c r="E2" s="45">
         <v>0.05</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="45">
         <v>18</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="46">
         <v>2.3032407407407407E-3</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="47">
         <v>1.3632175925925925</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="45">
         <v>2.91</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="45">
         <v>1</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="45">
         <v>11</v>
       </c>
-      <c r="L2" s="47">
-        <v>0</v>
-      </c>
-      <c r="M2" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="L2" s="45">
+        <v>0</v>
+      </c>
+      <c r="M2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="45">
         <v>396</v>
       </c>
-      <c r="C3" s="47">
-        <v>0</v>
-      </c>
-      <c r="D3" s="47">
-        <v>0</v>
-      </c>
-      <c r="E3" s="47">
+      <c r="C3" s="45">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
         <v>0.37</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="45">
         <v>217</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="46">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="46">
         <v>0.5369328703703703</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="45">
         <v>7.89</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="45">
         <v>1.21</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="45">
         <v>359</v>
       </c>
-      <c r="L3" s="47">
-        <v>0</v>
-      </c>
-      <c r="M3" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="L3" s="45">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <v>296</v>
       </c>
-      <c r="C4" s="47">
-        <v>0</v>
-      </c>
-      <c r="D4" s="47">
-        <v>0</v>
-      </c>
-      <c r="E4" s="47">
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
         <v>0.45</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="45">
         <v>5</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <v>2.0370370370370373E-3</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="46">
         <v>0.6040740740740741</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <v>5.94</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="45">
         <v>1.06</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="45">
         <v>418</v>
       </c>
-      <c r="L4" s="47">
-        <v>0</v>
-      </c>
-      <c r="M4" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="45">
         <v>11</v>
       </c>
-      <c r="C5" s="47">
-        <v>0</v>
-      </c>
-      <c r="D5" s="47">
-        <v>0</v>
-      </c>
-      <c r="E5" s="47">
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
         <v>0.5</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="45">
         <v>147</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="46">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="45">
         <v>6.29</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="45">
         <v>1.29</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="45">
         <v>765</v>
       </c>
-      <c r="L5" s="47">
-        <v>0</v>
-      </c>
-      <c r="M5" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="47">
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
         <f>SUM(B2:B5)</f>
         <v>1296</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <f>SUM(D2:D5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>387</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="49">
+      <c r="G6" s="41"/>
+      <c r="H6" s="47">
         <f>SUM(H2:H5)</f>
         <v>2.5085300925925922</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="45">
         <f>SUM(K2:K5)</f>
         <v>1553</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="45">
         <f>SUM(M2:M5)</f>
         <v>0</v>
       </c>

--- a/Datos/Google_Analytics-Catálogo_EBA.xlsx
+++ b/Datos/Google_Analytics-Catálogo_EBA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA Nuria\Mi trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF60325-FEAF-4D87-9805-7D734F1648BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{D944B07B-7236-468E-A8D5-38724AC61516}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D944B07B-7236-468E-A8D5-38724AC61516}"/>
   </bookViews>
   <sheets>
     <sheet name="Visión general" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Ubicación" sheetId="11" r:id="rId7"/>
     <sheet name="Valor tiempo de vida cliente" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2006,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C62A7C3-0AA2-480B-A10F-D47AA5906846}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6238,7 +6238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B105DA-D34A-4DC2-9B04-2F07D8189D82}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
